--- a/porh faltante.xlsx
+++ b/porh faltante.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\Ordenamiento-Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A138523-CA9C-4027-A52B-B46AC8CEC179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C64218-564A-4818-AA1A-62D4677FCF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t xml:space="preserve">IMAGEN </t>
   </si>
@@ -301,6 +309,12 @@
   </si>
   <si>
     <t>Si esta la imagen, falta trabajo del diseñador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no hay imagen solo tabla E:\Documents\PORH CHICHIMENE\TOMO_II_PROSPECTIVA\VOLUMEN_2_MODELACION_CALIDAD_AGUA  </t>
+  </si>
+  <si>
+    <t>quinta grafica no esta: Perfil DQO en términos de DBOu simulado en diferentes escenarios</t>
   </si>
 </sst>
 </file>
@@ -409,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,8 +460,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -455,10 +472,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,15 +821,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
@@ -850,7 +870,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
@@ -861,11 +881,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="12"/>
       <c r="E6" s="11"/>
     </row>
@@ -989,10 +1009,10 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1067,16 +1087,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1088,7 +1108,7 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1116,7 +1136,7 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1190,6 +1210,7 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1201,6 +1222,7 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1212,6 +1234,7 @@
       <c r="C32" t="s">
         <v>43</v>
       </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1223,6 +1246,7 @@
       <c r="C33" t="s">
         <v>43</v>
       </c>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1234,6 +1258,7 @@
       <c r="C34" t="s">
         <v>43</v>
       </c>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1245,6 +1270,7 @@
       <c r="C35" t="s">
         <v>43</v>
       </c>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1256,6 +1282,7 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1267,6 +1294,7 @@
       <c r="C37" t="s">
         <v>48</v>
       </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1278,6 +1306,7 @@
       <c r="C38" t="s">
         <v>48</v>
       </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1286,13 +1315,13 @@
       <c r="B39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1301,6 +1330,7 @@
       <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1312,19 +1342,23 @@
       <c r="C41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D42" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1334,6 +1368,10 @@
       <c r="C43" t="s">
         <v>53</v>
       </c>
+      <c r="D43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1345,6 +1383,7 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1356,6 +1395,7 @@
       <c r="C45" t="s">
         <v>58</v>
       </c>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1379,10 +1419,10 @@
       <c r="C47" t="s">
         <v>84</v>
       </c>
+      <c r="D47" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C39:G39"/>
+  <mergeCells count="2">
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
